--- a/Tiền Nợ.xlsx
+++ b/Tiền Nợ.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nợ của Hoàng Anh</t>
   </si>
   <si>
     <t>nước ngọt</t>
+  </si>
+  <si>
+    <t>Nợ của K Đạt</t>
   </si>
 </sst>
 </file>
@@ -45,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,15 +71,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -373,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G18"/>
+  <dimension ref="D5:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,15 +433,21 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7">
+    <row r="5" spans="4:12">
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="4:7">
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="4:12">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -402,8 +457,17 @@
         <f>SUM(G5, F6)</f>
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="4:7">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(L5, K6)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12">
       <c r="D7" s="2">
         <v>45495</v>
       </c>
@@ -417,8 +481,15 @@
         <f t="shared" ref="G7:G18" si="0">SUM(G6, F7)</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="4:7">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L18" si="1">SUM(L6, K7)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -426,8 +497,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="4:7">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -435,8 +513,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="4:7">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -444,8 +529,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="4:7">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -453,8 +545,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="4:7">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -462,8 +561,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="4:7">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -471,8 +577,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="4:7">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -480,8 +593,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="4:7">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -489,8 +609,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="4:7">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -498,8 +625,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -507,8 +641,15 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="4:7">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -516,10 +657,18 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tiền Nợ.xlsx
+++ b/Tiền Nợ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nợ của Hoàng Anh</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Nợ của K Đạt</t>
+  </si>
+  <si>
+    <t>mì tôm</t>
+  </si>
+  <si>
+    <t>lẩu + mì tôm</t>
   </si>
 </sst>
 </file>
@@ -112,10 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -127,6 +131,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,242 +438,260 @@
   <dimension ref="D5:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:12">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
         <v>232</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <f>SUM(G5, F6)</f>
         <v>232</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>24</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5">
         <f>SUM(L5, K6)</f>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="4:12">
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>45495</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <f t="shared" ref="G7:G18" si="0">SUM(G6, F7)</f>
         <v>246</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <f t="shared" ref="L7:L18" si="1">SUM(L6, K7)</f>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="4:12">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="4:12">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -671,6 +702,7 @@
     <mergeCell ref="I5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
